--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Fall.121019.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Fall.121019.xlsx_with_dialog_acts.xlsx
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1609,12 +1609,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3293,12 +3293,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3503,12 +3503,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3713,12 +3713,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5149,12 +5149,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5359,12 +5359,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5527,12 +5527,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5611,12 +5611,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6413,12 +6413,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7005,12 +7005,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7345,12 +7345,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7513,12 +7513,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7681,12 +7681,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8685,12 +8685,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8727,12 +8727,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8853,12 +8853,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9655,12 +9655,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9781,12 +9781,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10201,12 +10201,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10961,12 +10961,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11465,12 +11465,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11549,12 +11549,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13233,12 +13233,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13695,12 +13695,12 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13737,12 +13737,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13863,12 +13863,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14031,12 +14031,12 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14619,12 +14619,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14665,12 +14665,12 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14707,12 +14707,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15085,12 +15085,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15127,12 +15127,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15463,12 +15463,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16219,12 +16219,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16471,12 +16471,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16559,12 +16559,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16811,12 +16811,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17525,12 +17525,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17777,12 +17777,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17903,12 +17903,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18155,12 +18155,12 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18827,12 +18827,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18869,12 +18869,12 @@
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18911,12 +18911,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20129,12 +20129,12 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20297,12 +20297,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20507,12 +20507,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20549,12 +20549,12 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20843,12 +20843,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21303,12 +21303,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21847,12 +21847,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22057,12 +22057,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22309,12 +22309,12 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22979,12 +22979,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23021,12 +23021,12 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
